--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S12/S12_storagemod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S12/S12_storagemod.xlsx
@@ -14,156 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.016430368008419703</t>
-  </si>
-  <si>
-    <t>0.026401305236875748</t>
-  </si>
-  <si>
-    <t>0.04038945569581172</t>
-  </si>
-  <si>
-    <t>0.061853586683147894</t>
-  </si>
-  <si>
-    <t>0.0994541031009277</t>
-  </si>
-  <si>
-    <t>0.15993498477402743</t>
-  </si>
-  <si>
-    <t>0.24080618440296714</t>
-  </si>
-  <si>
-    <t>0.3812292726846878</t>
-  </si>
-  <si>
-    <t>0.5928109717377217</t>
-  </si>
-  <si>
-    <t>0.9224329431293485</t>
-  </si>
-  <si>
-    <t>1.4583687098125622</t>
-  </si>
-  <si>
-    <t>2.232470973405854</t>
-  </si>
-  <si>
-    <t>3.5893053838768143</t>
-  </si>
-  <si>
-    <t>5.582870085545788</t>
-  </si>
-  <si>
-    <t>8.97274484496841</t>
-  </si>
-  <si>
-    <t>13.953432418732394</t>
-  </si>
-  <si>
-    <t>22.0571272164329</t>
-  </si>
-  <si>
-    <t>34.29453028125821</t>
-  </si>
-  <si>
-    <t>55.09910672704661</t>
-  </si>
-  <si>
-    <t>84.2541116418957</t>
-  </si>
-  <si>
-    <t>128.85784216184345</t>
-  </si>
-  <si>
-    <t>203.65662172871777</t>
-  </si>
-  <si>
-    <t>327.1386976411913</t>
-  </si>
-  <si>
-    <t>508.36862775530983</t>
-  </si>
-  <si>
-    <t>85.43215720175563</t>
-  </si>
-  <si>
-    <t>112.56197952891549</t>
-  </si>
-  <si>
-    <t>141.78270718140533</t>
-  </si>
-  <si>
-    <t>234.5696495450072</t>
-  </si>
-  <si>
-    <t>365.5554090449573</t>
-  </si>
-  <si>
-    <t>591.6213313761707</t>
-  </si>
-  <si>
-    <t>824.4688368955271</t>
-  </si>
-  <si>
-    <t>1582.9706008998223</t>
-  </si>
-  <si>
-    <t>1994.5520042442702</t>
-  </si>
-  <si>
-    <t>2988.4147856941854</t>
-  </si>
-  <si>
-    <t>4036.1775020851833</t>
-  </si>
-  <si>
-    <t>5999.495880880482</t>
-  </si>
-  <si>
-    <t>9165.049108170766</t>
-  </si>
-  <si>
-    <t>12389.002622960577</t>
-  </si>
-  <si>
-    <t>17226.04573149254</t>
-  </si>
-  <si>
-    <t>22042.883646894425</t>
-  </si>
-  <si>
-    <t>28638.39928692275</t>
-  </si>
-  <si>
-    <t>34932.043441641676</t>
-  </si>
-  <si>
-    <t>44439.51357165819</t>
-  </si>
-  <si>
-    <t>49761.7264943571</t>
-  </si>
-  <si>
-    <t>58224.21459052726</t>
-  </si>
-  <si>
-    <t>72089.98074444979</t>
-  </si>
-  <si>
-    <t>87080.5136742432</t>
-  </si>
-  <si>
-    <t>92572.12356220245</t>
+    <t>Storage modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -536,195 +392,195 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
+      <c r="A2">
+        <v>0.0164303680084197</v>
+      </c>
+      <c r="B2">
+        <v>85.43215720175563</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+      <c r="A3">
+        <v>0.02640130523687575</v>
+      </c>
+      <c r="B3">
+        <v>112.5619795289155</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
+      <c r="A4">
+        <v>0.04038945569581172</v>
+      </c>
+      <c r="B4">
+        <v>141.7827071814053</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
+      <c r="A5">
+        <v>0.06185358668314789</v>
+      </c>
+      <c r="B5">
+        <v>234.5696495450072</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
+      <c r="A6">
+        <v>0.0994541031009277</v>
+      </c>
+      <c r="B6">
+        <v>365.5554090449573</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
+      <c r="A7">
+        <v>0.1599349847740274</v>
+      </c>
+      <c r="B7">
+        <v>591.6213313761707</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
+      <c r="A8">
+        <v>0.2408061844029671</v>
+      </c>
+      <c r="B8">
+        <v>824.4688368955271</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
+      <c r="A9">
+        <v>0.3812292726846878</v>
+      </c>
+      <c r="B9">
+        <v>1582.970600899822</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
+      <c r="A10">
+        <v>0.5928109717377217</v>
+      </c>
+      <c r="B10">
+        <v>1994.55200424427</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
+      <c r="A11">
+        <v>0.9224329431293485</v>
+      </c>
+      <c r="B11">
+        <v>2988.414785694185</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+      <c r="A12">
+        <v>1.458368709812562</v>
+      </c>
+      <c r="B12">
+        <v>4036.177502085183</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
+      <c r="A13">
+        <v>2.232470973405854</v>
+      </c>
+      <c r="B13">
+        <v>5999.495880880482</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
+      <c r="A14">
+        <v>3.589305383876814</v>
+      </c>
+      <c r="B14">
+        <v>9165.049108170766</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
+      <c r="A15">
+        <v>5.582870085545788</v>
+      </c>
+      <c r="B15">
+        <v>12389.00262296058</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
+      <c r="A16">
+        <v>8.97274484496841</v>
+      </c>
+      <c r="B16">
+        <v>17226.04573149254</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
+      <c r="A17">
+        <v>13.95343241873239</v>
+      </c>
+      <c r="B17">
+        <v>22042.88364689442</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
+      <c r="A18">
+        <v>22.0571272164329</v>
+      </c>
+      <c r="B18">
+        <v>28638.39928692275</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
+      <c r="A19">
+        <v>34.29453028125821</v>
+      </c>
+      <c r="B19">
+        <v>34932.04344164168</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
+      <c r="A20">
+        <v>55.09910672704661</v>
+      </c>
+      <c r="B20">
+        <v>44439.51357165819</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
+      <c r="A21">
+        <v>84.2541116418957</v>
+      </c>
+      <c r="B21">
+        <v>49761.7264943571</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
+      <c r="A22">
+        <v>128.8578421618435</v>
+      </c>
+      <c r="B22">
+        <v>58224.21459052726</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
+      <c r="A23">
+        <v>203.6566217287178</v>
+      </c>
+      <c r="B23">
+        <v>72089.98074444979</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
+      <c r="A24">
+        <v>327.1386976411913</v>
+      </c>
+      <c r="B24">
+        <v>87080.51367424319</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
+      <c r="A25">
+        <v>508.3686277553098</v>
+      </c>
+      <c r="B25">
+        <v>92572.12356220245</v>
       </c>
     </row>
   </sheetData>
